--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed4/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.010000000000002</v>
+        <v>-8.016</v>
       </c>
     </row>
     <row r="5">
@@ -555,7 +555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.834</v>
+        <v>-21.847</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.796000000000001</v>
+        <v>-8.123000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.556</v>
+        <v>-7.323</v>
       </c>
     </row>
     <row r="12">
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.194</v>
+        <v>-22.08</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.712</v>
+        <v>-21.905</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.784000000000001</v>
+        <v>-8.493</v>
       </c>
     </row>
     <row r="17">
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.018</v>
+        <v>-22.091</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.34</v>
+        <v>-20.654</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.510000000000002</v>
+        <v>-8.348000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.778</v>
+        <v>-7.170999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.158</v>
+        <v>-21.303</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -802,12 +802,12 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.236</v>
+        <v>-7.543000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.06</v>
+        <v>-21.874</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.042</v>
+        <v>-21.393</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -914,12 +914,12 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.892</v>
+        <v>-7.636</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.144</v>
+        <v>-20.089</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -928,12 +928,12 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.036</v>
+        <v>-8.254000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.872</v>
+        <v>-20.391</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1054,12 +1054,12 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.26</v>
+        <v>-7.88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.528</v>
+        <v>-21.576</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.834000000000001</v>
+        <v>-7.986</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.672000000000001</v>
+        <v>-8.35</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.081999999999999</v>
+        <v>-7.958</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.768</v>
+        <v>-22.003</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.214</v>
+        <v>-22.232</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.713999999999999</v>
+        <v>-7.486</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.834000000000001</v>
+        <v>-7.656000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.572</v>
+        <v>-21.52</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.404</v>
+        <v>-8.193999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.64</v>
+        <v>-20.074</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.966</v>
+        <v>-19.911</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.140000000000001</v>
+        <v>-8.379999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.708</v>
+        <v>-8.044</v>
       </c>
     </row>
     <row r="81">
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9</v>
+        <v>-21.901</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.876</v>
+        <v>-21.891</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.134</v>
+        <v>-7.376</v>
       </c>
     </row>
     <row r="92">
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.346</v>
+        <v>-21.461</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.522</v>
+        <v>-21.349</v>
       </c>
       <c r="B97" t="n">
         <v>6.4</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.853999999999999</v>
+        <v>-7.543000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.359999999999999</v>
+        <v>-8.253</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.843999999999999</v>
+        <v>-7.790999999999999</v>
       </c>
     </row>
     <row r="105">
